--- a/data/teacher/André B..xlsx
+++ b/data/teacher/André B..xlsx
@@ -542,12 +542,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, 'MEC-2B-Elet. Digit. Básica', -]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[-, -, -, 'MEC-2B-Elet. Digit. Básica']</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -606,12 +606,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, 'MEC-2B-Elet. Digit. Básica', -]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[-, -, -, 'MEC-2B-Elet. Digit. Básica']</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -638,12 +638,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, 'MEC-2B-Elet. Digit. Básica', -]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[-, -, -, 'MEC-2B-Elet. Digit. Básica']</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -670,12 +670,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, 'MEC-2B-Elet. Digit. Básica', -]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[-, -, -, 'MEC-2B-Elet. Digit. Básica']</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1017,7 +1017,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ELM-2NA-Circuitos Elétricos 2</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1049,12 +1049,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ELM-2NA-Circuitos Elétricos 2</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>ELM-1NA-Circuitos Elétricos 1</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1086,7 +1086,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>ELM-1NA-Circuitos Elétricos 1</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">

--- a/data/teacher/André B..xlsx
+++ b/data/teacher/André B..xlsx
@@ -542,12 +542,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[-, -, 'MEC-2B-Elet. Digit. Básica', -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-2B-Elet. Digit. Básica</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -606,12 +606,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[-, -, 'MEC-2B-Elet. Digit. Básica', -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-2B-Elet. Digit. Básica</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -638,12 +638,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[-, -, 'MEC-2B-Elet. Digit. Básica', -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-2B-Elet. Digit. Básica</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -670,12 +670,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[-, -, 'MEC-2B-Elet. Digit. Básica', -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-2B-Elet. Digit. Básica</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">

--- a/data/teacher/André B..xlsx
+++ b/data/teacher/André B..xlsx
@@ -473,7 +473,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-2B-Elet. Digit. Básica</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-2B-Elet. Digit. Básica</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -537,7 +537,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-2B-Elet. Digit. Básica</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +547,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>MEC-2B-Elet. Digit. Básica</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-2B-Elet. Digit. Básica</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -611,7 +611,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>MEC-2B-Elet. Digit. Básica</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -643,7 +643,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>MEC-2B-Elet. Digit. Básica</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -675,7 +675,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>MEC-2B-Elet. Digit. Básica</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">

--- a/data/teacher/André B..xlsx
+++ b/data/teacher/André B..xlsx
@@ -473,7 +473,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MEC-2B-Elet. Digit. Básica</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MEC-2B-Elet. Digit. Básica</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -537,27 +537,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>MEC-2B-Elet. Digit. Básica</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -601,27 +601,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>MEC-2B-Elet. Digit. Básica</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -653,7 +653,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-2B-Elet. Digit. Básica</t>
         </is>
       </c>
     </row>
@@ -685,7 +685,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-2B-Elet. Digit. Básica</t>
         </is>
       </c>
     </row>

--- a/data/teacher/André B..xlsx
+++ b/data/teacher/André B..xlsx
@@ -552,12 +552,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-2B-Elet. Digit. Básica</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>MEC-2B-Elet. Digit. Básica</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -616,12 +616,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-2B-Elet. Digit. Básica</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>MEC-2B-Elet. Digit. Básica</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -648,12 +648,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-2B-Elet. Digit. Básica</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>MEC-2B-Elet. Digit. Básica</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -680,12 +680,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-2B-Elet. Digit. Básica</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>MEC-2B-Elet. Digit. Básica</t>
+          <t>-</t>
         </is>
       </c>
     </row>
